--- a/Report/Cruise Control 제어기 개발 검증 보고서 V0.02.xlsx
+++ b/Report/Cruise Control 제어기 개발 검증 보고서 V0.02.xlsx
@@ -1469,15 +1469,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1509,6 +1500,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1960,12 +1960,12 @@
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
-      <c r="G23" s="40" t="s">
+      <c r="G23" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="53"/>
     </row>
     <row r="24" spans="2:11">
       <c r="D24" s="29" t="s">
@@ -2034,12 +2034,12 @@
       <c r="D29" s="28"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
-      <c r="G29" s="40" t="s">
+      <c r="G29" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="42"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="53"/>
     </row>
     <row r="30" spans="2:11">
       <c r="D30" s="29" t="s">
@@ -2149,7 +2149,7 @@
   <dimension ref="B2:H176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="14.4"/>
@@ -2172,16 +2172,16 @@
       <c r="C3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="49" t="s">
         <v>321</v>
       </c>
     </row>
@@ -2189,19 +2189,19 @@
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="46">
         <f>main!F4</f>
         <v>1</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="46">
         <f>main!G4</f>
         <v>92</v>
       </c>
-      <c r="F4" s="49">
+      <c r="F4" s="46">
         <f>main!H4</f>
         <v>56</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="46">
         <f>SUM(D4:F4)</f>
         <v>149</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="45" t="s">
         <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -2238,7 +2238,7 @@
       <c r="D8" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="42">
         <v>2</v>
       </c>
       <c r="F8" s="33" t="s">
@@ -2254,7 +2254,7 @@
       <c r="D9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="42">
         <v>3</v>
       </c>
       <c r="F9" s="33" t="s">
@@ -2270,7 +2270,7 @@
       <c r="D10" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="42">
         <v>5</v>
       </c>
       <c r="F10" s="32" t="s">
@@ -2280,13 +2280,13 @@
       <c r="H10" s="32"/>
     </row>
     <row r="11" spans="2:8" ht="15" customHeight="1">
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="50" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="42">
         <v>5</v>
       </c>
       <c r="F11" s="33" t="s">
@@ -2296,13 +2296,13 @@
       <c r="H11" s="32"/>
     </row>
     <row r="12" spans="2:8" ht="15" customHeight="1">
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="50" t="s">
         <v>82</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="42">
         <v>3</v>
       </c>
       <c r="F12" s="32" t="s">
@@ -2312,13 +2312,13 @@
       <c r="H12" s="32"/>
     </row>
     <row r="13" spans="2:8" ht="15" customHeight="1">
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="50" t="s">
         <v>74</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="42">
         <v>8</v>
       </c>
       <c r="F13" s="32" t="s">
@@ -2334,7 +2334,7 @@
       <c r="D14" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="42">
         <v>6</v>
       </c>
       <c r="F14" s="33" t="s">
@@ -2350,7 +2350,7 @@
       <c r="D15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="42">
         <v>17</v>
       </c>
       <c r="F15" s="32" t="s">
@@ -2366,7 +2366,7 @@
       <c r="D16" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="42">
         <v>24</v>
       </c>
       <c r="F16" s="32" t="s">
@@ -2382,7 +2382,7 @@
       <c r="D17" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="42">
         <v>3</v>
       </c>
       <c r="F17" s="32" t="s">
@@ -2398,7 +2398,7 @@
       <c r="D18" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="42">
         <v>10</v>
       </c>
       <c r="F18" s="33" t="s">
@@ -2414,7 +2414,7 @@
       <c r="D19" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="42">
         <v>5</v>
       </c>
       <c r="F19" s="32" t="s">
@@ -2430,7 +2430,7 @@
       <c r="D20" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="42">
         <v>3</v>
       </c>
       <c r="F20" s="33" t="s">
@@ -2446,7 +2446,7 @@
       <c r="D21" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="42">
         <v>1</v>
       </c>
       <c r="F21" s="33" t="s">
@@ -2462,7 +2462,7 @@
       <c r="D22" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="45">
+      <c r="E22" s="42">
         <v>15</v>
       </c>
       <c r="F22" s="32" t="s">
@@ -2478,7 +2478,7 @@
       <c r="D23" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="42">
         <v>7</v>
       </c>
       <c r="F23" s="32" t="s">
@@ -2494,7 +2494,7 @@
       <c r="D24" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="42">
         <v>1</v>
       </c>
       <c r="F24" s="33" t="s">
@@ -2504,13 +2504,13 @@
       <c r="H24" s="32"/>
     </row>
     <row r="25" spans="3:8" ht="15" customHeight="1">
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="50" t="s">
         <v>72</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="42">
         <v>31</v>
       </c>
       <c r="F25" s="33" t="s">
@@ -2520,1514 +2520,1514 @@
       <c r="H25" s="32"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="49"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="51" t="s">
+      <c r="C27" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="49"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="49"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="51" t="s">
+      <c r="C29" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="49"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="51" t="s">
+      <c r="C30" s="48" t="s">
         <v>173</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="49"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="3:8">
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="49"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="49"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="51" t="s">
+      <c r="C33" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="49"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" spans="3:8">
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="49"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="3:8">
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="49"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="46"/>
     </row>
     <row r="36" spans="3:8">
-      <c r="C36" s="51" t="s">
+      <c r="C36" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="49"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="46"/>
     </row>
     <row r="37" spans="3:8">
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="49"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="46"/>
     </row>
     <row r="38" spans="3:8">
-      <c r="C38" s="51" t="s">
+      <c r="C38" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="49"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="46"/>
     </row>
     <row r="39" spans="3:8">
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="49"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="3:8">
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="49"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="46"/>
     </row>
     <row r="41" spans="3:8">
-      <c r="C41" s="51" t="s">
+      <c r="C41" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="50"/>
-      <c r="H41" s="49"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="46"/>
     </row>
     <row r="42" spans="3:8">
-      <c r="C42" s="51" t="s">
+      <c r="C42" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="50"/>
-      <c r="H42" s="49"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="46"/>
     </row>
     <row r="43" spans="3:8">
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="49"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="46"/>
     </row>
     <row r="44" spans="3:8">
-      <c r="C44" s="51" t="s">
+      <c r="C44" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="49"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="46"/>
     </row>
     <row r="45" spans="3:8">
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="49"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" spans="3:8">
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="49"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="46"/>
     </row>
     <row r="47" spans="3:8">
-      <c r="C47" s="51" t="s">
+      <c r="C47" s="48" t="s">
         <v>190</v>
       </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="49"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="46"/>
     </row>
     <row r="48" spans="3:8">
-      <c r="C48" s="51" t="s">
+      <c r="C48" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="49"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="3:8">
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="49"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="46"/>
     </row>
     <row r="50" spans="3:8">
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="49"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="46"/>
     </row>
     <row r="51" spans="3:8">
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="49"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="46"/>
     </row>
     <row r="52" spans="3:8">
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="49"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="46"/>
     </row>
     <row r="53" spans="3:8">
-      <c r="C53" s="51" t="s">
+      <c r="C53" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="49"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="46"/>
     </row>
     <row r="54" spans="3:8">
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="48" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="49"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="46"/>
     </row>
     <row r="55" spans="3:8">
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="48" t="s">
         <v>198</v>
       </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="49"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="46"/>
     </row>
     <row r="56" spans="3:8">
-      <c r="C56" s="51" t="s">
+      <c r="C56" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="49"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="46"/>
     </row>
     <row r="57" spans="3:8">
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="48" t="s">
         <v>200</v>
       </c>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="49"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="46"/>
     </row>
     <row r="58" spans="3:8">
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="49"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="46"/>
     </row>
     <row r="59" spans="3:8">
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="49"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="46"/>
     </row>
     <row r="60" spans="3:8">
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="49"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="46"/>
     </row>
     <row r="61" spans="3:8">
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="49"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="47"/>
+      <c r="H61" s="46"/>
     </row>
     <row r="62" spans="3:8">
-      <c r="C62" s="51" t="s">
+      <c r="C62" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="D62" s="49"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="49"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="46"/>
     </row>
     <row r="63" spans="3:8">
-      <c r="C63" s="51" t="s">
+      <c r="C63" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="49"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="46"/>
     </row>
     <row r="64" spans="3:8">
-      <c r="C64" s="51" t="s">
+      <c r="C64" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="D64" s="49"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="50"/>
-      <c r="H64" s="49"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="46"/>
     </row>
     <row r="65" spans="3:8">
-      <c r="C65" s="51" t="s">
+      <c r="C65" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="49"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="46"/>
     </row>
     <row r="66" spans="3:8">
-      <c r="C66" s="51" t="s">
+      <c r="C66" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="50"/>
-      <c r="H66" s="49"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="46"/>
     </row>
     <row r="67" spans="3:8">
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="49"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="46"/>
     </row>
     <row r="68" spans="3:8">
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="50"/>
-      <c r="H68" s="49"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="46"/>
     </row>
     <row r="69" spans="3:8">
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="50"/>
-      <c r="H69" s="49"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="46"/>
     </row>
     <row r="70" spans="3:8">
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="D70" s="49"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="49"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="46"/>
     </row>
     <row r="71" spans="3:8">
-      <c r="C71" s="51" t="s">
+      <c r="C71" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="49"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="47"/>
+      <c r="H71" s="46"/>
     </row>
     <row r="72" spans="3:8">
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="D72" s="49"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="49"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="46"/>
     </row>
     <row r="73" spans="3:8">
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="D73" s="49"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="50"/>
-      <c r="H73" s="49"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="46"/>
     </row>
     <row r="74" spans="3:8">
-      <c r="C74" s="51" t="s">
+      <c r="C74" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="49"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="46"/>
     </row>
     <row r="75" spans="3:8">
-      <c r="C75" s="51" t="s">
+      <c r="C75" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="49"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="46"/>
     </row>
     <row r="76" spans="3:8">
-      <c r="C76" s="51" t="s">
+      <c r="C76" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="49"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="46"/>
     </row>
     <row r="77" spans="3:8">
-      <c r="C77" s="51" t="s">
+      <c r="C77" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="49"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="46"/>
     </row>
     <row r="78" spans="3:8">
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="D78" s="49"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="49"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="47"/>
+      <c r="H78" s="46"/>
     </row>
     <row r="79" spans="3:8">
-      <c r="C79" s="51" t="s">
+      <c r="C79" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="D79" s="49"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="50"/>
-      <c r="H79" s="49"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="46"/>
     </row>
     <row r="80" spans="3:8">
-      <c r="C80" s="51" t="s">
+      <c r="C80" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="D80" s="49"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="50"/>
-      <c r="H80" s="49"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="46"/>
     </row>
     <row r="81" spans="3:8">
-      <c r="C81" s="51" t="s">
+      <c r="C81" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="D81" s="49"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="50"/>
-      <c r="H81" s="49"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="46"/>
     </row>
     <row r="82" spans="3:8">
-      <c r="C82" s="51" t="s">
+      <c r="C82" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="49"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="46"/>
     </row>
     <row r="83" spans="3:8">
-      <c r="C83" s="51" t="s">
+      <c r="C83" s="48" t="s">
         <v>226</v>
       </c>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="50"/>
-      <c r="H83" s="49"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="46"/>
     </row>
     <row r="84" spans="3:8">
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="50"/>
-      <c r="H84" s="49"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="46"/>
     </row>
     <row r="85" spans="3:8">
-      <c r="C85" s="51" t="s">
+      <c r="C85" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="50"/>
-      <c r="H85" s="49"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="46"/>
     </row>
     <row r="86" spans="3:8">
-      <c r="C86" s="51" t="s">
+      <c r="C86" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="50"/>
-      <c r="H86" s="49"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="46"/>
     </row>
     <row r="87" spans="3:8">
-      <c r="C87" s="51" t="s">
+      <c r="C87" s="48" t="s">
         <v>230</v>
       </c>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="50"/>
-      <c r="H87" s="49"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="47"/>
+      <c r="H87" s="46"/>
     </row>
     <row r="88" spans="3:8">
-      <c r="C88" s="51" t="s">
+      <c r="C88" s="48" t="s">
         <v>231</v>
       </c>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="50"/>
-      <c r="H88" s="49"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="46"/>
     </row>
     <row r="89" spans="3:8">
-      <c r="C89" s="51" t="s">
+      <c r="C89" s="48" t="s">
         <v>232</v>
       </c>
-      <c r="D89" s="49"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="49"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="46"/>
     </row>
     <row r="90" spans="3:8">
-      <c r="C90" s="51" t="s">
+      <c r="C90" s="48" t="s">
         <v>233</v>
       </c>
-      <c r="D90" s="49"/>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="50"/>
-      <c r="H90" s="49"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="47"/>
+      <c r="H90" s="46"/>
     </row>
     <row r="91" spans="3:8">
-      <c r="C91" s="51" t="s">
+      <c r="C91" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="D91" s="49"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="49"/>
-      <c r="G91" s="50"/>
-      <c r="H91" s="49"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="46"/>
     </row>
     <row r="92" spans="3:8">
-      <c r="C92" s="51" t="s">
+      <c r="C92" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="50"/>
-      <c r="H92" s="49"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="46"/>
     </row>
     <row r="93" spans="3:8">
-      <c r="C93" s="51" t="s">
+      <c r="C93" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="50"/>
-      <c r="H93" s="49"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="46"/>
     </row>
     <row r="94" spans="3:8">
-      <c r="C94" s="51" t="s">
+      <c r="C94" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="50"/>
-      <c r="H94" s="49"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="46"/>
     </row>
     <row r="95" spans="3:8">
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="D95" s="49"/>
-      <c r="E95" s="49"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="50"/>
-      <c r="H95" s="49"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="46"/>
     </row>
     <row r="96" spans="3:8">
-      <c r="C96" s="51" t="s">
+      <c r="C96" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="D96" s="49"/>
-      <c r="E96" s="49"/>
-      <c r="F96" s="49"/>
-      <c r="G96" s="50"/>
-      <c r="H96" s="49"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="46"/>
     </row>
     <row r="97" spans="3:8">
-      <c r="C97" s="51" t="s">
+      <c r="C97" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="D97" s="49"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="50"/>
-      <c r="H97" s="49"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="46"/>
     </row>
     <row r="98" spans="3:8">
-      <c r="C98" s="51" t="s">
+      <c r="C98" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="D98" s="49"/>
-      <c r="E98" s="49"/>
-      <c r="F98" s="49"/>
-      <c r="G98" s="50"/>
-      <c r="H98" s="49"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="46"/>
     </row>
     <row r="99" spans="3:8">
-      <c r="C99" s="51" t="s">
+      <c r="C99" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="D99" s="49"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="50"/>
-      <c r="H99" s="49"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="47"/>
+      <c r="H99" s="46"/>
     </row>
     <row r="100" spans="3:8">
-      <c r="C100" s="51" t="s">
+      <c r="C100" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="D100" s="49"/>
-      <c r="E100" s="49"/>
-      <c r="F100" s="49"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="49"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="46"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="46"/>
     </row>
     <row r="101" spans="3:8">
-      <c r="C101" s="51" t="s">
+      <c r="C101" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="D101" s="49"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="49"/>
-      <c r="G101" s="50"/>
-      <c r="H101" s="49"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="47"/>
+      <c r="H101" s="46"/>
     </row>
     <row r="102" spans="3:8">
-      <c r="C102" s="51" t="s">
+      <c r="C102" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="D102" s="49"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="49"/>
-      <c r="G102" s="50"/>
-      <c r="H102" s="49"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="46"/>
     </row>
     <row r="103" spans="3:8">
-      <c r="C103" s="51" t="s">
+      <c r="C103" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="D103" s="49"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="49"/>
-      <c r="G103" s="50"/>
-      <c r="H103" s="49"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="46"/>
     </row>
     <row r="104" spans="3:8">
-      <c r="C104" s="51" t="s">
+      <c r="C104" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="D104" s="49"/>
-      <c r="E104" s="49"/>
-      <c r="F104" s="49"/>
-      <c r="G104" s="50"/>
-      <c r="H104" s="49"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="46"/>
     </row>
     <row r="105" spans="3:8">
-      <c r="C105" s="51" t="s">
+      <c r="C105" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="D105" s="49"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="49"/>
-      <c r="G105" s="50"/>
-      <c r="H105" s="49"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="46"/>
     </row>
     <row r="106" spans="3:8">
-      <c r="C106" s="51" t="s">
+      <c r="C106" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="D106" s="49"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="50"/>
-      <c r="H106" s="49"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="47"/>
+      <c r="H106" s="46"/>
     </row>
     <row r="107" spans="3:8">
-      <c r="C107" s="51" t="s">
+      <c r="C107" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="D107" s="49"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="49"/>
-      <c r="G107" s="50"/>
-      <c r="H107" s="49"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="46"/>
     </row>
     <row r="108" spans="3:8">
-      <c r="C108" s="51" t="s">
+      <c r="C108" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="D108" s="49"/>
-      <c r="E108" s="49"/>
-      <c r="F108" s="49"/>
-      <c r="G108" s="50"/>
-      <c r="H108" s="49"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="46"/>
     </row>
     <row r="109" spans="3:8">
-      <c r="C109" s="51" t="s">
+      <c r="C109" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="D109" s="49"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="49"/>
-      <c r="G109" s="50"/>
-      <c r="H109" s="49"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="46"/>
     </row>
     <row r="110" spans="3:8">
-      <c r="C110" s="51" t="s">
+      <c r="C110" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="D110" s="49"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="49"/>
-      <c r="G110" s="50"/>
-      <c r="H110" s="49"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="46"/>
     </row>
     <row r="111" spans="3:8">
-      <c r="C111" s="51" t="s">
+      <c r="C111" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="D111" s="49"/>
-      <c r="E111" s="49"/>
-      <c r="F111" s="49"/>
-      <c r="G111" s="50"/>
-      <c r="H111" s="49"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="46"/>
     </row>
     <row r="112" spans="3:8">
-      <c r="C112" s="51" t="s">
+      <c r="C112" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="50"/>
-      <c r="H112" s="49"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="46"/>
     </row>
     <row r="113" spans="3:8">
-      <c r="C113" s="51" t="s">
+      <c r="C113" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="D113" s="49"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="49"/>
-      <c r="G113" s="50"/>
-      <c r="H113" s="49"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="47"/>
+      <c r="H113" s="46"/>
     </row>
     <row r="114" spans="3:8">
-      <c r="C114" s="51" t="s">
+      <c r="C114" s="48" t="s">
         <v>257</v>
       </c>
-      <c r="D114" s="49"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="49"/>
-      <c r="G114" s="50"/>
-      <c r="H114" s="49"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="46"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="47"/>
+      <c r="H114" s="46"/>
     </row>
     <row r="115" spans="3:8">
-      <c r="C115" s="51" t="s">
+      <c r="C115" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="D115" s="49"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="49"/>
-      <c r="G115" s="50"/>
-      <c r="H115" s="49"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="46"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="46"/>
     </row>
     <row r="116" spans="3:8">
-      <c r="C116" s="51" t="s">
+      <c r="C116" s="48" t="s">
         <v>259</v>
       </c>
-      <c r="D116" s="49"/>
-      <c r="E116" s="49"/>
-      <c r="F116" s="49"/>
-      <c r="G116" s="50"/>
-      <c r="H116" s="49"/>
+      <c r="D116" s="46"/>
+      <c r="E116" s="46"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="47"/>
+      <c r="H116" s="46"/>
     </row>
     <row r="117" spans="3:8">
-      <c r="C117" s="51" t="s">
+      <c r="C117" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="D117" s="49"/>
-      <c r="E117" s="49"/>
-      <c r="F117" s="49"/>
-      <c r="G117" s="50"/>
-      <c r="H117" s="49"/>
+      <c r="D117" s="46"/>
+      <c r="E117" s="46"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="47"/>
+      <c r="H117" s="46"/>
     </row>
     <row r="118" spans="3:8">
-      <c r="C118" s="51" t="s">
+      <c r="C118" s="48" t="s">
         <v>261</v>
       </c>
-      <c r="D118" s="49"/>
-      <c r="E118" s="49"/>
-      <c r="F118" s="49"/>
-      <c r="G118" s="50"/>
-      <c r="H118" s="49"/>
+      <c r="D118" s="46"/>
+      <c r="E118" s="46"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="47"/>
+      <c r="H118" s="46"/>
     </row>
     <row r="119" spans="3:8">
-      <c r="C119" s="51" t="s">
+      <c r="C119" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="D119" s="49"/>
-      <c r="E119" s="49"/>
-      <c r="F119" s="49"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="49"/>
+      <c r="D119" s="46"/>
+      <c r="E119" s="46"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="46"/>
     </row>
     <row r="120" spans="3:8">
-      <c r="C120" s="51" t="s">
+      <c r="C120" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="D120" s="49"/>
-      <c r="E120" s="49"/>
-      <c r="F120" s="49"/>
-      <c r="G120" s="50"/>
-      <c r="H120" s="49"/>
+      <c r="D120" s="46"/>
+      <c r="E120" s="46"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="46"/>
     </row>
     <row r="121" spans="3:8">
-      <c r="C121" s="51" t="s">
+      <c r="C121" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="D121" s="49"/>
-      <c r="E121" s="49"/>
-      <c r="F121" s="49"/>
-      <c r="G121" s="50"/>
-      <c r="H121" s="49"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="46"/>
     </row>
     <row r="122" spans="3:8">
-      <c r="C122" s="51" t="s">
+      <c r="C122" s="48" t="s">
         <v>265</v>
       </c>
-      <c r="D122" s="49"/>
-      <c r="E122" s="49"/>
-      <c r="F122" s="49"/>
-      <c r="G122" s="50"/>
-      <c r="H122" s="49"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="46"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="46"/>
     </row>
     <row r="123" spans="3:8">
-      <c r="C123" s="51" t="s">
+      <c r="C123" s="48" t="s">
         <v>266</v>
       </c>
-      <c r="D123" s="49"/>
-      <c r="E123" s="49"/>
-      <c r="F123" s="49"/>
-      <c r="G123" s="50"/>
-      <c r="H123" s="49"/>
+      <c r="D123" s="46"/>
+      <c r="E123" s="46"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="46"/>
     </row>
     <row r="124" spans="3:8">
-      <c r="C124" s="51" t="s">
+      <c r="C124" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="D124" s="49"/>
-      <c r="E124" s="49"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="50"/>
-      <c r="H124" s="49"/>
+      <c r="D124" s="46"/>
+      <c r="E124" s="46"/>
+      <c r="F124" s="46"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="46"/>
     </row>
     <row r="125" spans="3:8">
-      <c r="C125" s="51" t="s">
+      <c r="C125" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="D125" s="49"/>
-      <c r="E125" s="49"/>
-      <c r="F125" s="49"/>
-      <c r="G125" s="50"/>
-      <c r="H125" s="49"/>
+      <c r="D125" s="46"/>
+      <c r="E125" s="46"/>
+      <c r="F125" s="46"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="46"/>
     </row>
     <row r="126" spans="3:8">
-      <c r="C126" s="51" t="s">
+      <c r="C126" s="48" t="s">
         <v>269</v>
       </c>
-      <c r="D126" s="49"/>
-      <c r="E126" s="49"/>
-      <c r="F126" s="49"/>
-      <c r="G126" s="50"/>
-      <c r="H126" s="49"/>
+      <c r="D126" s="46"/>
+      <c r="E126" s="46"/>
+      <c r="F126" s="46"/>
+      <c r="G126" s="47"/>
+      <c r="H126" s="46"/>
     </row>
     <row r="127" spans="3:8">
-      <c r="C127" s="51" t="s">
+      <c r="C127" s="48" t="s">
         <v>270</v>
       </c>
-      <c r="D127" s="49"/>
-      <c r="E127" s="49"/>
-      <c r="F127" s="49"/>
-      <c r="G127" s="50"/>
-      <c r="H127" s="49"/>
+      <c r="D127" s="46"/>
+      <c r="E127" s="46"/>
+      <c r="F127" s="46"/>
+      <c r="G127" s="47"/>
+      <c r="H127" s="46"/>
     </row>
     <row r="128" spans="3:8">
-      <c r="C128" s="51" t="s">
+      <c r="C128" s="48" t="s">
         <v>271</v>
       </c>
-      <c r="D128" s="49"/>
-      <c r="E128" s="49"/>
-      <c r="F128" s="49"/>
-      <c r="G128" s="50"/>
-      <c r="H128" s="49"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="46"/>
+      <c r="F128" s="46"/>
+      <c r="G128" s="47"/>
+      <c r="H128" s="46"/>
     </row>
     <row r="129" spans="3:8">
-      <c r="C129" s="51" t="s">
+      <c r="C129" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="D129" s="49"/>
-      <c r="E129" s="49"/>
-      <c r="F129" s="49"/>
-      <c r="G129" s="50"/>
-      <c r="H129" s="49"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="46"/>
+      <c r="F129" s="46"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="46"/>
     </row>
     <row r="130" spans="3:8">
-      <c r="C130" s="51" t="s">
+      <c r="C130" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="D130" s="49"/>
-      <c r="E130" s="49"/>
-      <c r="F130" s="49"/>
-      <c r="G130" s="50"/>
-      <c r="H130" s="49"/>
+      <c r="D130" s="46"/>
+      <c r="E130" s="46"/>
+      <c r="F130" s="46"/>
+      <c r="G130" s="47"/>
+      <c r="H130" s="46"/>
     </row>
     <row r="131" spans="3:8">
-      <c r="C131" s="51" t="s">
+      <c r="C131" s="48" t="s">
         <v>274</v>
       </c>
-      <c r="D131" s="49"/>
-      <c r="E131" s="49"/>
-      <c r="F131" s="49"/>
-      <c r="G131" s="50"/>
-      <c r="H131" s="49"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="46"/>
+      <c r="F131" s="46"/>
+      <c r="G131" s="47"/>
+      <c r="H131" s="46"/>
     </row>
     <row r="132" spans="3:8">
-      <c r="C132" s="51" t="s">
+      <c r="C132" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="D132" s="49"/>
-      <c r="E132" s="49"/>
-      <c r="F132" s="49"/>
-      <c r="G132" s="50"/>
-      <c r="H132" s="49"/>
+      <c r="D132" s="46"/>
+      <c r="E132" s="46"/>
+      <c r="F132" s="46"/>
+      <c r="G132" s="47"/>
+      <c r="H132" s="46"/>
     </row>
     <row r="133" spans="3:8">
-      <c r="C133" s="51" t="s">
+      <c r="C133" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="D133" s="49"/>
-      <c r="E133" s="49"/>
-      <c r="F133" s="49"/>
-      <c r="G133" s="50"/>
-      <c r="H133" s="49"/>
+      <c r="D133" s="46"/>
+      <c r="E133" s="46"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="47"/>
+      <c r="H133" s="46"/>
     </row>
     <row r="134" spans="3:8">
-      <c r="C134" s="51" t="s">
+      <c r="C134" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="D134" s="49"/>
-      <c r="E134" s="49"/>
-      <c r="F134" s="49"/>
-      <c r="G134" s="50"/>
-      <c r="H134" s="49"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="46"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="46"/>
     </row>
     <row r="135" spans="3:8">
-      <c r="C135" s="51" t="s">
+      <c r="C135" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="D135" s="49"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="49"/>
-      <c r="G135" s="50"/>
-      <c r="H135" s="49"/>
+      <c r="D135" s="46"/>
+      <c r="E135" s="46"/>
+      <c r="F135" s="46"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="46"/>
     </row>
     <row r="136" spans="3:8">
-      <c r="C136" s="51" t="s">
+      <c r="C136" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="D136" s="49"/>
-      <c r="E136" s="49"/>
-      <c r="F136" s="49"/>
-      <c r="G136" s="50"/>
-      <c r="H136" s="49"/>
+      <c r="D136" s="46"/>
+      <c r="E136" s="46"/>
+      <c r="F136" s="46"/>
+      <c r="G136" s="47"/>
+      <c r="H136" s="46"/>
     </row>
     <row r="137" spans="3:8">
-      <c r="C137" s="51" t="s">
+      <c r="C137" s="48" t="s">
         <v>280</v>
       </c>
-      <c r="D137" s="49"/>
-      <c r="E137" s="49"/>
-      <c r="F137" s="49"/>
-      <c r="G137" s="50"/>
-      <c r="H137" s="49"/>
+      <c r="D137" s="46"/>
+      <c r="E137" s="46"/>
+      <c r="F137" s="46"/>
+      <c r="G137" s="47"/>
+      <c r="H137" s="46"/>
     </row>
     <row r="138" spans="3:8">
-      <c r="C138" s="51" t="s">
+      <c r="C138" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="D138" s="49"/>
-      <c r="E138" s="49"/>
-      <c r="F138" s="49"/>
-      <c r="G138" s="50"/>
-      <c r="H138" s="49"/>
+      <c r="D138" s="46"/>
+      <c r="E138" s="46"/>
+      <c r="F138" s="46"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="46"/>
     </row>
     <row r="139" spans="3:8">
-      <c r="C139" s="51" t="s">
+      <c r="C139" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="D139" s="49"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="49"/>
-      <c r="G139" s="50"/>
-      <c r="H139" s="49"/>
+      <c r="D139" s="46"/>
+      <c r="E139" s="46"/>
+      <c r="F139" s="46"/>
+      <c r="G139" s="47"/>
+      <c r="H139" s="46"/>
     </row>
     <row r="140" spans="3:8">
-      <c r="C140" s="51" t="s">
+      <c r="C140" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="D140" s="49"/>
-      <c r="E140" s="49"/>
-      <c r="F140" s="49"/>
-      <c r="G140" s="50"/>
-      <c r="H140" s="49"/>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="47"/>
+      <c r="H140" s="46"/>
     </row>
     <row r="141" spans="3:8">
-      <c r="C141" s="51" t="s">
+      <c r="C141" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="D141" s="49"/>
-      <c r="E141" s="49"/>
-      <c r="F141" s="49"/>
-      <c r="G141" s="50"/>
-      <c r="H141" s="49"/>
+      <c r="D141" s="46"/>
+      <c r="E141" s="46"/>
+      <c r="F141" s="46"/>
+      <c r="G141" s="47"/>
+      <c r="H141" s="46"/>
     </row>
     <row r="142" spans="3:8">
-      <c r="C142" s="51" t="s">
+      <c r="C142" s="48" t="s">
         <v>285</v>
       </c>
-      <c r="D142" s="49"/>
-      <c r="E142" s="49"/>
-      <c r="F142" s="49"/>
-      <c r="G142" s="50"/>
-      <c r="H142" s="49"/>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="47"/>
+      <c r="H142" s="46"/>
     </row>
     <row r="143" spans="3:8">
-      <c r="C143" s="51" t="s">
+      <c r="C143" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="D143" s="49"/>
-      <c r="E143" s="49"/>
-      <c r="F143" s="49"/>
-      <c r="G143" s="50"/>
-      <c r="H143" s="49"/>
+      <c r="D143" s="46"/>
+      <c r="E143" s="46"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="47"/>
+      <c r="H143" s="46"/>
     </row>
     <row r="144" spans="3:8">
-      <c r="C144" s="51" t="s">
+      <c r="C144" s="48" t="s">
         <v>287</v>
       </c>
-      <c r="D144" s="49"/>
-      <c r="E144" s="49"/>
-      <c r="F144" s="49"/>
-      <c r="G144" s="50"/>
-      <c r="H144" s="49"/>
+      <c r="D144" s="46"/>
+      <c r="E144" s="46"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="47"/>
+      <c r="H144" s="46"/>
     </row>
     <row r="145" spans="3:8">
-      <c r="C145" s="51" t="s">
+      <c r="C145" s="48" t="s">
         <v>288</v>
       </c>
-      <c r="D145" s="49"/>
-      <c r="E145" s="49"/>
-      <c r="F145" s="49"/>
-      <c r="G145" s="50"/>
-      <c r="H145" s="49"/>
+      <c r="D145" s="46"/>
+      <c r="E145" s="46"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="47"/>
+      <c r="H145" s="46"/>
     </row>
     <row r="146" spans="3:8">
-      <c r="C146" s="51" t="s">
+      <c r="C146" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="D146" s="49"/>
-      <c r="E146" s="49"/>
-      <c r="F146" s="49"/>
-      <c r="G146" s="50"/>
-      <c r="H146" s="49"/>
+      <c r="D146" s="46"/>
+      <c r="E146" s="46"/>
+      <c r="F146" s="46"/>
+      <c r="G146" s="47"/>
+      <c r="H146" s="46"/>
     </row>
     <row r="147" spans="3:8">
-      <c r="C147" s="51" t="s">
+      <c r="C147" s="48" t="s">
         <v>290</v>
       </c>
-      <c r="D147" s="49"/>
-      <c r="E147" s="49"/>
-      <c r="F147" s="49"/>
-      <c r="G147" s="50"/>
-      <c r="H147" s="49"/>
+      <c r="D147" s="46"/>
+      <c r="E147" s="46"/>
+      <c r="F147" s="46"/>
+      <c r="G147" s="47"/>
+      <c r="H147" s="46"/>
     </row>
     <row r="148" spans="3:8">
-      <c r="C148" s="51" t="s">
+      <c r="C148" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="D148" s="49"/>
-      <c r="E148" s="49"/>
-      <c r="F148" s="49"/>
-      <c r="G148" s="50"/>
-      <c r="H148" s="49"/>
+      <c r="D148" s="46"/>
+      <c r="E148" s="46"/>
+      <c r="F148" s="46"/>
+      <c r="G148" s="47"/>
+      <c r="H148" s="46"/>
     </row>
     <row r="149" spans="3:8">
-      <c r="C149" s="51" t="s">
+      <c r="C149" s="48" t="s">
         <v>292</v>
       </c>
-      <c r="D149" s="49"/>
-      <c r="E149" s="49"/>
-      <c r="F149" s="49"/>
-      <c r="G149" s="50"/>
-      <c r="H149" s="49"/>
+      <c r="D149" s="46"/>
+      <c r="E149" s="46"/>
+      <c r="F149" s="46"/>
+      <c r="G149" s="47"/>
+      <c r="H149" s="46"/>
     </row>
     <row r="150" spans="3:8">
-      <c r="C150" s="51" t="s">
+      <c r="C150" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="D150" s="49"/>
-      <c r="E150" s="49"/>
-      <c r="F150" s="49"/>
-      <c r="G150" s="50"/>
-      <c r="H150" s="49"/>
+      <c r="D150" s="46"/>
+      <c r="E150" s="46"/>
+      <c r="F150" s="46"/>
+      <c r="G150" s="47"/>
+      <c r="H150" s="46"/>
     </row>
     <row r="151" spans="3:8">
-      <c r="C151" s="51" t="s">
+      <c r="C151" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="D151" s="49"/>
-      <c r="E151" s="49"/>
-      <c r="F151" s="49"/>
-      <c r="G151" s="50"/>
-      <c r="H151" s="49"/>
+      <c r="D151" s="46"/>
+      <c r="E151" s="46"/>
+      <c r="F151" s="46"/>
+      <c r="G151" s="47"/>
+      <c r="H151" s="46"/>
     </row>
     <row r="152" spans="3:8">
-      <c r="C152" s="51" t="s">
+      <c r="C152" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="D152" s="49"/>
-      <c r="E152" s="49"/>
-      <c r="F152" s="49"/>
-      <c r="G152" s="50"/>
-      <c r="H152" s="49"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="46"/>
+      <c r="F152" s="46"/>
+      <c r="G152" s="47"/>
+      <c r="H152" s="46"/>
     </row>
     <row r="153" spans="3:8">
-      <c r="C153" s="51" t="s">
+      <c r="C153" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="D153" s="49"/>
-      <c r="E153" s="49"/>
-      <c r="F153" s="49"/>
-      <c r="G153" s="50"/>
-      <c r="H153" s="49"/>
+      <c r="D153" s="46"/>
+      <c r="E153" s="46"/>
+      <c r="F153" s="46"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="46"/>
     </row>
     <row r="154" spans="3:8">
-      <c r="C154" s="51" t="s">
+      <c r="C154" s="48" t="s">
         <v>297</v>
       </c>
-      <c r="D154" s="49"/>
-      <c r="E154" s="49"/>
-      <c r="F154" s="49"/>
-      <c r="G154" s="50"/>
-      <c r="H154" s="49"/>
+      <c r="D154" s="46"/>
+      <c r="E154" s="46"/>
+      <c r="F154" s="46"/>
+      <c r="G154" s="47"/>
+      <c r="H154" s="46"/>
     </row>
     <row r="155" spans="3:8">
-      <c r="C155" s="51" t="s">
+      <c r="C155" s="48" t="s">
         <v>298</v>
       </c>
-      <c r="D155" s="49"/>
-      <c r="E155" s="49"/>
-      <c r="F155" s="49"/>
-      <c r="G155" s="50"/>
-      <c r="H155" s="49"/>
+      <c r="D155" s="46"/>
+      <c r="E155" s="46"/>
+      <c r="F155" s="46"/>
+      <c r="G155" s="47"/>
+      <c r="H155" s="46"/>
     </row>
     <row r="156" spans="3:8">
-      <c r="C156" s="51" t="s">
+      <c r="C156" s="48" t="s">
         <v>299</v>
       </c>
-      <c r="D156" s="49"/>
-      <c r="E156" s="49"/>
-      <c r="F156" s="49"/>
-      <c r="G156" s="50"/>
-      <c r="H156" s="49"/>
+      <c r="D156" s="46"/>
+      <c r="E156" s="46"/>
+      <c r="F156" s="46"/>
+      <c r="G156" s="47"/>
+      <c r="H156" s="46"/>
     </row>
     <row r="157" spans="3:8">
-      <c r="C157" s="51" t="s">
+      <c r="C157" s="48" t="s">
         <v>300</v>
       </c>
-      <c r="D157" s="49"/>
-      <c r="E157" s="49"/>
-      <c r="F157" s="49"/>
-      <c r="G157" s="50"/>
-      <c r="H157" s="49"/>
+      <c r="D157" s="46"/>
+      <c r="E157" s="46"/>
+      <c r="F157" s="46"/>
+      <c r="G157" s="47"/>
+      <c r="H157" s="46"/>
     </row>
     <row r="158" spans="3:8">
-      <c r="C158" s="51" t="s">
+      <c r="C158" s="48" t="s">
         <v>301</v>
       </c>
-      <c r="D158" s="49"/>
-      <c r="E158" s="49"/>
-      <c r="F158" s="49"/>
-      <c r="G158" s="50"/>
-      <c r="H158" s="49"/>
+      <c r="D158" s="46"/>
+      <c r="E158" s="46"/>
+      <c r="F158" s="46"/>
+      <c r="G158" s="47"/>
+      <c r="H158" s="46"/>
     </row>
     <row r="159" spans="3:8">
-      <c r="C159" s="51" t="s">
+      <c r="C159" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="D159" s="49"/>
-      <c r="E159" s="49"/>
-      <c r="F159" s="49"/>
-      <c r="G159" s="50"/>
-      <c r="H159" s="49"/>
+      <c r="D159" s="46"/>
+      <c r="E159" s="46"/>
+      <c r="F159" s="46"/>
+      <c r="G159" s="47"/>
+      <c r="H159" s="46"/>
     </row>
     <row r="160" spans="3:8">
-      <c r="C160" s="51" t="s">
+      <c r="C160" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="D160" s="49"/>
-      <c r="E160" s="49"/>
-      <c r="F160" s="49"/>
-      <c r="G160" s="50"/>
-      <c r="H160" s="49"/>
+      <c r="D160" s="46"/>
+      <c r="E160" s="46"/>
+      <c r="F160" s="46"/>
+      <c r="G160" s="47"/>
+      <c r="H160" s="46"/>
     </row>
     <row r="161" spans="3:8">
-      <c r="C161" s="51" t="s">
+      <c r="C161" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="D161" s="49"/>
-      <c r="E161" s="49"/>
-      <c r="F161" s="49"/>
-      <c r="G161" s="50"/>
-      <c r="H161" s="49"/>
+      <c r="D161" s="46"/>
+      <c r="E161" s="46"/>
+      <c r="F161" s="46"/>
+      <c r="G161" s="47"/>
+      <c r="H161" s="46"/>
     </row>
     <row r="162" spans="3:8">
-      <c r="C162" s="51" t="s">
+      <c r="C162" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="D162" s="49"/>
-      <c r="E162" s="49"/>
-      <c r="F162" s="49"/>
-      <c r="G162" s="50"/>
-      <c r="H162" s="49"/>
+      <c r="D162" s="46"/>
+      <c r="E162" s="46"/>
+      <c r="F162" s="46"/>
+      <c r="G162" s="47"/>
+      <c r="H162" s="46"/>
     </row>
     <row r="163" spans="3:8">
-      <c r="C163" s="51" t="s">
+      <c r="C163" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="D163" s="49"/>
-      <c r="E163" s="49"/>
-      <c r="F163" s="49"/>
-      <c r="G163" s="50"/>
-      <c r="H163" s="49"/>
+      <c r="D163" s="46"/>
+      <c r="E163" s="46"/>
+      <c r="F163" s="46"/>
+      <c r="G163" s="47"/>
+      <c r="H163" s="46"/>
     </row>
     <row r="164" spans="3:8">
-      <c r="C164" s="51" t="s">
+      <c r="C164" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="D164" s="49"/>
-      <c r="E164" s="49"/>
-      <c r="F164" s="49"/>
-      <c r="G164" s="50"/>
-      <c r="H164" s="49"/>
+      <c r="D164" s="46"/>
+      <c r="E164" s="46"/>
+      <c r="F164" s="46"/>
+      <c r="G164" s="47"/>
+      <c r="H164" s="46"/>
     </row>
     <row r="165" spans="3:8">
-      <c r="C165" s="51" t="s">
+      <c r="C165" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="D165" s="49"/>
-      <c r="E165" s="49"/>
-      <c r="F165" s="49"/>
-      <c r="G165" s="50"/>
-      <c r="H165" s="49"/>
+      <c r="D165" s="46"/>
+      <c r="E165" s="46"/>
+      <c r="F165" s="46"/>
+      <c r="G165" s="47"/>
+      <c r="H165" s="46"/>
     </row>
     <row r="166" spans="3:8">
-      <c r="C166" s="51" t="s">
+      <c r="C166" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="D166" s="49"/>
-      <c r="E166" s="49"/>
-      <c r="F166" s="49"/>
-      <c r="G166" s="50"/>
-      <c r="H166" s="49"/>
+      <c r="D166" s="46"/>
+      <c r="E166" s="46"/>
+      <c r="F166" s="46"/>
+      <c r="G166" s="47"/>
+      <c r="H166" s="46"/>
     </row>
     <row r="167" spans="3:8">
-      <c r="C167" s="51" t="s">
+      <c r="C167" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="D167" s="49"/>
-      <c r="E167" s="49"/>
-      <c r="F167" s="49"/>
-      <c r="G167" s="50"/>
-      <c r="H167" s="49"/>
+      <c r="D167" s="46"/>
+      <c r="E167" s="46"/>
+      <c r="F167" s="46"/>
+      <c r="G167" s="47"/>
+      <c r="H167" s="46"/>
     </row>
     <row r="168" spans="3:8">
-      <c r="C168" s="51" t="s">
+      <c r="C168" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="D168" s="49"/>
-      <c r="E168" s="49"/>
-      <c r="F168" s="49"/>
-      <c r="G168" s="50"/>
-      <c r="H168" s="49"/>
+      <c r="D168" s="46"/>
+      <c r="E168" s="46"/>
+      <c r="F168" s="46"/>
+      <c r="G168" s="47"/>
+      <c r="H168" s="46"/>
     </row>
     <row r="169" spans="3:8">
-      <c r="C169" s="51" t="s">
+      <c r="C169" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="D169" s="49"/>
-      <c r="E169" s="49"/>
-      <c r="F169" s="49"/>
-      <c r="G169" s="50"/>
-      <c r="H169" s="49"/>
+      <c r="D169" s="46"/>
+      <c r="E169" s="46"/>
+      <c r="F169" s="46"/>
+      <c r="G169" s="47"/>
+      <c r="H169" s="46"/>
     </row>
     <row r="170" spans="3:8">
-      <c r="C170" s="51" t="s">
+      <c r="C170" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="D170" s="49"/>
-      <c r="E170" s="49"/>
-      <c r="F170" s="49"/>
-      <c r="G170" s="50"/>
-      <c r="H170" s="49"/>
+      <c r="D170" s="46"/>
+      <c r="E170" s="46"/>
+      <c r="F170" s="46"/>
+      <c r="G170" s="47"/>
+      <c r="H170" s="46"/>
     </row>
     <row r="171" spans="3:8">
-      <c r="C171" s="51" t="s">
+      <c r="C171" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="D171" s="49"/>
-      <c r="E171" s="49"/>
-      <c r="F171" s="49"/>
-      <c r="G171" s="50"/>
-      <c r="H171" s="49"/>
+      <c r="D171" s="46"/>
+      <c r="E171" s="46"/>
+      <c r="F171" s="46"/>
+      <c r="G171" s="47"/>
+      <c r="H171" s="46"/>
     </row>
     <row r="172" spans="3:8">
-      <c r="C172" s="51" t="s">
+      <c r="C172" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="D172" s="49"/>
-      <c r="E172" s="49"/>
-      <c r="F172" s="49"/>
-      <c r="G172" s="50"/>
-      <c r="H172" s="49"/>
+      <c r="D172" s="46"/>
+      <c r="E172" s="46"/>
+      <c r="F172" s="46"/>
+      <c r="G172" s="47"/>
+      <c r="H172" s="46"/>
     </row>
     <row r="173" spans="3:8">
-      <c r="C173" s="51" t="s">
+      <c r="C173" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="D173" s="49"/>
-      <c r="E173" s="49"/>
-      <c r="F173" s="49"/>
-      <c r="G173" s="50"/>
-      <c r="H173" s="49"/>
+      <c r="D173" s="46"/>
+      <c r="E173" s="46"/>
+      <c r="F173" s="46"/>
+      <c r="G173" s="47"/>
+      <c r="H173" s="46"/>
     </row>
     <row r="174" spans="3:8">
-      <c r="C174" s="51" t="s">
+      <c r="C174" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="D174" s="49"/>
-      <c r="E174" s="49"/>
-      <c r="F174" s="49"/>
-      <c r="G174" s="50"/>
-      <c r="H174" s="49"/>
+      <c r="D174" s="46"/>
+      <c r="E174" s="46"/>
+      <c r="F174" s="46"/>
+      <c r="G174" s="47"/>
+      <c r="H174" s="46"/>
     </row>
     <row r="175" spans="3:8">
-      <c r="C175" s="51" t="s">
+      <c r="C175" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="D175" s="49"/>
-      <c r="E175" s="49"/>
-      <c r="F175" s="49"/>
-      <c r="G175" s="50"/>
-      <c r="H175" s="49"/>
+      <c r="D175" s="46"/>
+      <c r="E175" s="46"/>
+      <c r="F175" s="46"/>
+      <c r="G175" s="47"/>
+      <c r="H175" s="46"/>
     </row>
     <row r="176" spans="3:8">
-      <c r="C176" s="51" t="s">
+      <c r="C176" s="48" t="s">
         <v>319</v>
       </c>
-      <c r="D176" s="49"/>
-      <c r="E176" s="49"/>
-      <c r="F176" s="49"/>
-      <c r="G176" s="50"/>
-      <c r="H176" s="49"/>
+      <c r="D176" s="46"/>
+      <c r="E176" s="46"/>
+      <c r="F176" s="46"/>
+      <c r="G176" s="47"/>
+      <c r="H176" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="C7:H7"/>
@@ -4041,7 +4041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T152"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q89" sqref="Q89"/>
     </sheetView>
   </sheetViews>
@@ -4065,7 +4065,7 @@
     <col min="16" max="16" width="9.69921875" style="37" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="113.8984375" style="37" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.19921875" style="37" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.296875" style="43" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.296875" style="40" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.09765625" style="37" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="8.69921875" style="1"/>
   </cols>
@@ -4121,7 +4121,7 @@
       <c r="R3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="44" t="s">
+      <c r="S3" s="41" t="s">
         <v>159</v>
       </c>
       <c r="T3" s="9" t="s">
@@ -4173,11 +4173,11 @@
       <c r="Q4" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="R4" s="45"/>
-      <c r="S4" s="46" t="s">
+      <c r="R4" s="42"/>
+      <c r="S4" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="T4" s="47" t="s">
+      <c r="T4" s="44" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4198,9 +4198,9 @@
       <c r="Q5" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="R5" s="45"/>
-      <c r="S5" s="46"/>
-      <c r="T5" s="45"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="42"/>
     </row>
     <row r="6" spans="2:20">
       <c r="B6" s="2" t="s">
@@ -4222,9 +4222,9 @@
       <c r="Q6" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="R6" s="45"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="45"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="42"/>
     </row>
     <row r="7" spans="2:20">
       <c r="C7" s="8" t="s">
@@ -4264,9 +4264,9 @@
       <c r="Q7" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="R7" s="45"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="45"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="42"/>
     </row>
     <row r="8" spans="2:20">
       <c r="C8" s="21" t="s">
@@ -4303,9 +4303,9 @@
       <c r="Q8" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="R8" s="45"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="45"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="42"/>
     </row>
     <row r="9" spans="2:20">
       <c r="C9" s="21" t="s">
@@ -4342,9 +4342,9 @@
       <c r="Q9" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="R9" s="45"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="45"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="42"/>
     </row>
     <row r="10" spans="2:20">
       <c r="C10" s="21" t="s">
@@ -4383,9 +4383,9 @@
       <c r="Q10" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="R10" s="45"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="45"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="42"/>
     </row>
     <row r="11" spans="2:20">
       <c r="C11" s="21" t="s">
@@ -4422,9 +4422,9 @@
       <c r="Q11" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="R11" s="45"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="45"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="42"/>
     </row>
     <row r="12" spans="2:20">
       <c r="C12" s="21" t="s">
@@ -4461,9 +4461,9 @@
       <c r="Q12" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="R12" s="45"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="45"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="42"/>
     </row>
     <row r="13" spans="2:20">
       <c r="C13" s="21" t="s">
@@ -4500,9 +4500,9 @@
       <c r="Q13" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="45"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="42"/>
     </row>
     <row r="14" spans="2:20">
       <c r="C14" s="21" t="s">
@@ -4539,9 +4539,9 @@
       <c r="Q14" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="R14" s="45"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="45"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="42"/>
     </row>
     <row r="15" spans="2:20">
       <c r="C15" s="21" t="s">
@@ -4578,9 +4578,9 @@
       <c r="Q15" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="45"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="42"/>
     </row>
     <row r="16" spans="2:20">
       <c r="C16" s="21" t="s">
@@ -4615,9 +4615,9 @@
       <c r="Q16" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="R16" s="45"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="45"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="42"/>
     </row>
     <row r="17" spans="3:20">
       <c r="C17" s="21"/>
@@ -4646,9 +4646,9 @@
       <c r="Q17" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="R17" s="45"/>
-      <c r="S17" s="46"/>
-      <c r="T17" s="45"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="42"/>
     </row>
     <row r="18" spans="3:20">
       <c r="C18" s="21"/>
@@ -4677,9 +4677,9 @@
       <c r="Q18" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="R18" s="45"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="45"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="42"/>
     </row>
     <row r="19" spans="3:20">
       <c r="L19" s="31"/>
@@ -4698,9 +4698,9 @@
       <c r="Q19" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="R19" s="45"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="45"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="42"/>
     </row>
     <row r="20" spans="3:20">
       <c r="L20" s="31"/>
@@ -4719,9 +4719,9 @@
       <c r="Q20" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="R20" s="45"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="45"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="42"/>
     </row>
     <row r="21" spans="3:20">
       <c r="L21" s="31"/>
@@ -4740,9 +4740,9 @@
       <c r="Q21" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="R21" s="45"/>
-      <c r="S21" s="46"/>
-      <c r="T21" s="45"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="42"/>
     </row>
     <row r="22" spans="3:20">
       <c r="L22" s="35"/>
@@ -4761,9 +4761,9 @@
       <c r="Q22" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="R22" s="45"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="45"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="42"/>
     </row>
     <row r="23" spans="3:20">
       <c r="L23" s="35"/>
@@ -4782,9 +4782,9 @@
       <c r="Q23" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="R23" s="45"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="45"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="42"/>
     </row>
     <row r="24" spans="3:20">
       <c r="L24" s="35"/>
@@ -4803,9 +4803,9 @@
       <c r="Q24" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="R24" s="45"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="45"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="42"/>
     </row>
     <row r="25" spans="3:20">
       <c r="L25" s="35"/>
@@ -4824,9 +4824,9 @@
       <c r="Q25" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="R25" s="45"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="45"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="42"/>
     </row>
     <row r="26" spans="3:20">
       <c r="L26" s="35"/>
@@ -4845,9 +4845,9 @@
       <c r="Q26" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="R26" s="45"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="45"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="42"/>
     </row>
     <row r="27" spans="3:20">
       <c r="L27" s="35"/>
@@ -4866,9 +4866,9 @@
       <c r="Q27" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="R27" s="45"/>
-      <c r="S27" s="46"/>
-      <c r="T27" s="45"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="42"/>
     </row>
     <row r="28" spans="3:20">
       <c r="L28" s="31"/>
@@ -4887,9 +4887,9 @@
       <c r="Q28" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="R28" s="45"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="45"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="42"/>
     </row>
     <row r="29" spans="3:20">
       <c r="L29" s="31"/>
@@ -4908,9 +4908,9 @@
       <c r="Q29" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="R29" s="45"/>
-      <c r="S29" s="46"/>
-      <c r="T29" s="45"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="42"/>
     </row>
     <row r="30" spans="3:20">
       <c r="L30" s="35"/>
@@ -4929,9 +4929,9 @@
       <c r="Q30" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="R30" s="45"/>
-      <c r="S30" s="46"/>
-      <c r="T30" s="45"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="42"/>
     </row>
     <row r="31" spans="3:20">
       <c r="L31" s="35"/>
@@ -4950,9 +4950,9 @@
       <c r="Q31" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="R31" s="45"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="45"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="42"/>
     </row>
     <row r="32" spans="3:20">
       <c r="L32" s="35"/>
@@ -4971,9 +4971,9 @@
       <c r="Q32" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="R32" s="45"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="45"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="42"/>
     </row>
     <row r="33" spans="12:20">
       <c r="L33" s="35"/>
@@ -4992,9 +4992,9 @@
       <c r="Q33" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="R33" s="45"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="45"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="42"/>
     </row>
     <row r="34" spans="12:20">
       <c r="L34" s="31"/>
@@ -5013,9 +5013,9 @@
       <c r="Q34" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="R34" s="45"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="45"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="42"/>
     </row>
     <row r="35" spans="12:20">
       <c r="L35" s="31"/>
@@ -5034,9 +5034,9 @@
       <c r="Q35" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="R35" s="45"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="45"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="42"/>
     </row>
     <row r="36" spans="12:20">
       <c r="L36" s="31"/>
@@ -5055,9 +5055,9 @@
       <c r="Q36" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="R36" s="45"/>
-      <c r="S36" s="46"/>
-      <c r="T36" s="45"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="42"/>
     </row>
     <row r="37" spans="12:20">
       <c r="L37" s="31"/>
@@ -5076,9 +5076,9 @@
       <c r="Q37" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="R37" s="45"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="45"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="42"/>
     </row>
     <row r="38" spans="12:20">
       <c r="L38" s="31"/>
@@ -5097,9 +5097,9 @@
       <c r="Q38" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="R38" s="45"/>
-      <c r="S38" s="46"/>
-      <c r="T38" s="45"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="42"/>
     </row>
     <row r="39" spans="12:20">
       <c r="L39" s="31"/>
@@ -5118,9 +5118,9 @@
       <c r="Q39" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="R39" s="45"/>
-      <c r="S39" s="46"/>
-      <c r="T39" s="45"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="42"/>
     </row>
     <row r="40" spans="12:20">
       <c r="L40" s="31"/>
@@ -5139,9 +5139,9 @@
       <c r="Q40" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="R40" s="45"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="45"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="42"/>
     </row>
     <row r="41" spans="12:20">
       <c r="L41" s="31"/>
@@ -5160,9 +5160,9 @@
       <c r="Q41" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="R41" s="45"/>
-      <c r="S41" s="46"/>
-      <c r="T41" s="45"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="42"/>
     </row>
     <row r="42" spans="12:20">
       <c r="L42" s="31"/>
@@ -5181,9 +5181,9 @@
       <c r="Q42" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="R42" s="45"/>
-      <c r="S42" s="46"/>
-      <c r="T42" s="45"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="42"/>
     </row>
     <row r="43" spans="12:20">
       <c r="L43" s="31"/>
@@ -5202,9 +5202,9 @@
       <c r="Q43" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="R43" s="45"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="45"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="42"/>
     </row>
     <row r="44" spans="12:20">
       <c r="L44" s="31"/>
@@ -5223,9 +5223,9 @@
       <c r="Q44" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="R44" s="45"/>
-      <c r="S44" s="46"/>
-      <c r="T44" s="45"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="42"/>
     </row>
     <row r="45" spans="12:20">
       <c r="L45" s="31"/>
@@ -5244,9 +5244,9 @@
       <c r="Q45" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="R45" s="45"/>
-      <c r="S45" s="46"/>
-      <c r="T45" s="45"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="42"/>
     </row>
     <row r="46" spans="12:20">
       <c r="L46" s="31"/>
@@ -5265,9 +5265,9 @@
       <c r="Q46" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="R46" s="45"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="45"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="42"/>
     </row>
     <row r="47" spans="12:20">
       <c r="L47" s="31"/>
@@ -5286,9 +5286,9 @@
       <c r="Q47" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="R47" s="45"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="45"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="42"/>
     </row>
     <row r="48" spans="12:20">
       <c r="L48" s="31"/>
@@ -5307,9 +5307,9 @@
       <c r="Q48" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="R48" s="45"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="45"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="42"/>
     </row>
     <row r="49" spans="12:20">
       <c r="L49" s="31"/>
@@ -5328,9 +5328,9 @@
       <c r="Q49" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="R49" s="45"/>
-      <c r="S49" s="46"/>
-      <c r="T49" s="45"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="42"/>
     </row>
     <row r="50" spans="12:20">
       <c r="L50" s="31"/>
@@ -5349,9 +5349,9 @@
       <c r="Q50" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="R50" s="45"/>
-      <c r="S50" s="46"/>
-      <c r="T50" s="45"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="42"/>
     </row>
     <row r="51" spans="12:20">
       <c r="L51" s="31"/>
@@ -5370,9 +5370,9 @@
       <c r="Q51" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="R51" s="45"/>
-      <c r="S51" s="46"/>
-      <c r="T51" s="45"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="42"/>
     </row>
     <row r="52" spans="12:20">
       <c r="L52" s="31"/>
@@ -5391,9 +5391,9 @@
       <c r="Q52" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="R52" s="45"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="45"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="42"/>
     </row>
     <row r="53" spans="12:20">
       <c r="L53" s="35"/>
@@ -5412,9 +5412,9 @@
       <c r="Q53" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R53" s="45"/>
-      <c r="S53" s="46"/>
-      <c r="T53" s="45"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="42"/>
     </row>
     <row r="54" spans="12:20">
       <c r="L54" s="35"/>
@@ -5433,9 +5433,9 @@
       <c r="Q54" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R54" s="45"/>
-      <c r="S54" s="46"/>
-      <c r="T54" s="45"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="42"/>
     </row>
     <row r="55" spans="12:20">
       <c r="L55" s="35"/>
@@ -5454,9 +5454,9 @@
       <c r="Q55" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R55" s="45"/>
-      <c r="S55" s="46"/>
-      <c r="T55" s="45"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="42"/>
     </row>
     <row r="56" spans="12:20">
       <c r="L56" s="35"/>
@@ -5475,9 +5475,9 @@
       <c r="Q56" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R56" s="45"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="45"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="42"/>
     </row>
     <row r="57" spans="12:20">
       <c r="L57" s="31"/>
@@ -5496,9 +5496,9 @@
       <c r="Q57" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="R57" s="45"/>
-      <c r="S57" s="46"/>
-      <c r="T57" s="45"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="42"/>
     </row>
     <row r="58" spans="12:20">
       <c r="L58" s="31"/>
@@ -5517,9 +5517,9 @@
       <c r="Q58" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="R58" s="45"/>
-      <c r="S58" s="46"/>
-      <c r="T58" s="45"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="42"/>
     </row>
     <row r="59" spans="12:20">
       <c r="L59" s="31"/>
@@ -5538,9 +5538,9 @@
       <c r="Q59" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="R59" s="45"/>
-      <c r="S59" s="46"/>
-      <c r="T59" s="45"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="42"/>
     </row>
     <row r="60" spans="12:20">
       <c r="L60" s="31"/>
@@ -5559,9 +5559,9 @@
       <c r="Q60" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="R60" s="45"/>
-      <c r="S60" s="46"/>
-      <c r="T60" s="45"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="42"/>
     </row>
     <row r="61" spans="12:20">
       <c r="L61" s="31"/>
@@ -5580,9 +5580,9 @@
       <c r="Q61" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="R61" s="45"/>
-      <c r="S61" s="46"/>
-      <c r="T61" s="45"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="42"/>
     </row>
     <row r="62" spans="12:20">
       <c r="L62" s="31"/>
@@ -5601,9 +5601,9 @@
       <c r="Q62" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="R62" s="45"/>
-      <c r="S62" s="46"/>
-      <c r="T62" s="45"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="42"/>
     </row>
     <row r="63" spans="12:20">
       <c r="L63" s="31"/>
@@ -5622,9 +5622,9 @@
       <c r="Q63" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="R63" s="45"/>
-      <c r="S63" s="46"/>
-      <c r="T63" s="45"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="42"/>
     </row>
     <row r="64" spans="12:20">
       <c r="L64" s="31"/>
@@ -5643,9 +5643,9 @@
       <c r="Q64" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="R64" s="45"/>
-      <c r="S64" s="46"/>
-      <c r="T64" s="45"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="42"/>
     </row>
     <row r="65" spans="12:20">
       <c r="L65" s="31"/>
@@ -5664,9 +5664,9 @@
       <c r="Q65" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="R65" s="45"/>
-      <c r="S65" s="46"/>
-      <c r="T65" s="45"/>
+      <c r="R65" s="42"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="42"/>
     </row>
     <row r="66" spans="12:20">
       <c r="L66" s="31"/>
@@ -5685,9 +5685,9 @@
       <c r="Q66" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="R66" s="45"/>
-      <c r="S66" s="46"/>
-      <c r="T66" s="45"/>
+      <c r="R66" s="42"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="42"/>
     </row>
     <row r="67" spans="12:20">
       <c r="L67" s="31"/>
@@ -5706,9 +5706,9 @@
       <c r="Q67" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="R67" s="45"/>
-      <c r="S67" s="46"/>
-      <c r="T67" s="45"/>
+      <c r="R67" s="42"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="42"/>
     </row>
     <row r="68" spans="12:20">
       <c r="L68" s="31"/>
@@ -5727,9 +5727,9 @@
       <c r="Q68" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="R68" s="45"/>
-      <c r="S68" s="46"/>
-      <c r="T68" s="45"/>
+      <c r="R68" s="42"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="42"/>
     </row>
     <row r="69" spans="12:20">
       <c r="L69" s="31"/>
@@ -5748,9 +5748,9 @@
       <c r="Q69" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="R69" s="45"/>
-      <c r="S69" s="46"/>
-      <c r="T69" s="45"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="42"/>
     </row>
     <row r="70" spans="12:20">
       <c r="L70" s="31"/>
@@ -5769,9 +5769,9 @@
       <c r="Q70" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R70" s="45"/>
-      <c r="S70" s="46"/>
-      <c r="T70" s="45"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="42"/>
     </row>
     <row r="71" spans="12:20">
       <c r="L71" s="31"/>
@@ -5790,9 +5790,9 @@
       <c r="Q71" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R71" s="45"/>
-      <c r="S71" s="46"/>
-      <c r="T71" s="45"/>
+      <c r="R71" s="42"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="42"/>
     </row>
     <row r="72" spans="12:20">
       <c r="L72" s="31"/>
@@ -5811,9 +5811,9 @@
       <c r="Q72" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R72" s="45"/>
-      <c r="S72" s="46"/>
-      <c r="T72" s="45"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="42"/>
     </row>
     <row r="73" spans="12:20">
       <c r="L73" s="31"/>
@@ -5832,9 +5832,9 @@
       <c r="Q73" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R73" s="45"/>
-      <c r="S73" s="46"/>
-      <c r="T73" s="45"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="43"/>
+      <c r="T73" s="42"/>
     </row>
     <row r="74" spans="12:20">
       <c r="L74" s="31"/>
@@ -5853,9 +5853,9 @@
       <c r="Q74" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="R74" s="45"/>
-      <c r="S74" s="46"/>
-      <c r="T74" s="45"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="43"/>
+      <c r="T74" s="42"/>
     </row>
     <row r="75" spans="12:20">
       <c r="L75" s="31"/>
@@ -5874,9 +5874,9 @@
       <c r="Q75" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="R75" s="45"/>
-      <c r="S75" s="46"/>
-      <c r="T75" s="45"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="43"/>
+      <c r="T75" s="42"/>
     </row>
     <row r="76" spans="12:20">
       <c r="L76" s="31"/>
@@ -5895,9 +5895,9 @@
       <c r="Q76" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="R76" s="45"/>
-      <c r="S76" s="46"/>
-      <c r="T76" s="45"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="43"/>
+      <c r="T76" s="42"/>
     </row>
     <row r="77" spans="12:20">
       <c r="L77" s="31"/>
@@ -5916,9 +5916,9 @@
       <c r="Q77" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="R77" s="45"/>
-      <c r="S77" s="46"/>
-      <c r="T77" s="45"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="43"/>
+      <c r="T77" s="42"/>
     </row>
     <row r="78" spans="12:20">
       <c r="L78" s="31"/>
@@ -5937,9 +5937,9 @@
       <c r="Q78" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="R78" s="45"/>
-      <c r="S78" s="46"/>
-      <c r="T78" s="45"/>
+      <c r="R78" s="42"/>
+      <c r="S78" s="43"/>
+      <c r="T78" s="42"/>
     </row>
     <row r="79" spans="12:20">
       <c r="L79" s="31"/>
@@ -5958,9 +5958,9 @@
       <c r="Q79" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="R79" s="45"/>
-      <c r="S79" s="46"/>
-      <c r="T79" s="45"/>
+      <c r="R79" s="42"/>
+      <c r="S79" s="43"/>
+      <c r="T79" s="42"/>
     </row>
     <row r="80" spans="12:20">
       <c r="L80" s="35"/>
@@ -5979,11 +5979,11 @@
       <c r="Q80" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="R80" s="45"/>
-      <c r="S80" s="46" t="s">
+      <c r="R80" s="42"/>
+      <c r="S80" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="T80" s="45" t="s">
+      <c r="T80" s="42" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6004,11 +6004,11 @@
       <c r="Q81" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="R81" s="45"/>
-      <c r="S81" s="46" t="s">
+      <c r="R81" s="42"/>
+      <c r="S81" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="T81" s="45" t="s">
+      <c r="T81" s="42" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6029,11 +6029,11 @@
       <c r="Q82" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="R82" s="45"/>
-      <c r="S82" s="46" t="s">
+      <c r="R82" s="42"/>
+      <c r="S82" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="T82" s="45" t="s">
+      <c r="T82" s="42" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6054,11 +6054,11 @@
       <c r="Q83" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="R83" s="45"/>
-      <c r="S83" s="46" t="s">
+      <c r="R83" s="42"/>
+      <c r="S83" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="T83" s="45" t="s">
+      <c r="T83" s="42" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6079,11 +6079,11 @@
       <c r="Q84" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="R84" s="45"/>
-      <c r="S84" s="46" t="s">
+      <c r="R84" s="42"/>
+      <c r="S84" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="T84" s="45" t="s">
+      <c r="T84" s="42" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6104,11 +6104,11 @@
       <c r="Q85" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="R85" s="45"/>
-      <c r="S85" s="46" t="s">
+      <c r="R85" s="42"/>
+      <c r="S85" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="T85" s="45" t="s">
+      <c r="T85" s="42" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6129,11 +6129,11 @@
       <c r="Q86" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="R86" s="45"/>
-      <c r="S86" s="46" t="s">
+      <c r="R86" s="42"/>
+      <c r="S86" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="T86" s="45" t="s">
+      <c r="T86" s="42" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6154,11 +6154,11 @@
       <c r="Q87" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="R87" s="45"/>
-      <c r="S87" s="46" t="s">
+      <c r="R87" s="42"/>
+      <c r="S87" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="T87" s="45" t="s">
+      <c r="T87" s="42" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6179,11 +6179,11 @@
       <c r="Q88" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="R88" s="45"/>
-      <c r="S88" s="46" t="s">
+      <c r="R88" s="42"/>
+      <c r="S88" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="T88" s="45" t="s">
+      <c r="T88" s="42" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6204,11 +6204,11 @@
       <c r="Q89" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="R89" s="45"/>
-      <c r="S89" s="46" t="s">
+      <c r="R89" s="42"/>
+      <c r="S89" s="43" t="s">
         <v>322</v>
       </c>
-      <c r="T89" s="45" t="s">
+      <c r="T89" s="42" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6229,9 +6229,9 @@
       <c r="Q90" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="R90" s="45"/>
-      <c r="S90" s="46"/>
-      <c r="T90" s="45"/>
+      <c r="R90" s="42"/>
+      <c r="S90" s="43"/>
+      <c r="T90" s="42"/>
     </row>
     <row r="91" spans="12:20">
       <c r="L91" s="31"/>
@@ -6250,9 +6250,9 @@
       <c r="Q91" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="R91" s="45"/>
-      <c r="S91" s="46"/>
-      <c r="T91" s="45"/>
+      <c r="R91" s="42"/>
+      <c r="S91" s="43"/>
+      <c r="T91" s="42"/>
     </row>
     <row r="92" spans="12:20">
       <c r="L92" s="31"/>
@@ -6271,9 +6271,9 @@
       <c r="Q92" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="R92" s="45"/>
-      <c r="S92" s="46"/>
-      <c r="T92" s="45"/>
+      <c r="R92" s="42"/>
+      <c r="S92" s="43"/>
+      <c r="T92" s="42"/>
     </row>
     <row r="93" spans="12:20">
       <c r="L93" s="31"/>
@@ -6292,9 +6292,9 @@
       <c r="Q93" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="R93" s="45"/>
-      <c r="S93" s="46"/>
-      <c r="T93" s="45"/>
+      <c r="R93" s="42"/>
+      <c r="S93" s="43"/>
+      <c r="T93" s="42"/>
     </row>
     <row r="94" spans="12:20">
       <c r="L94" s="31"/>
@@ -6313,9 +6313,9 @@
       <c r="Q94" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="R94" s="45"/>
-      <c r="S94" s="46"/>
-      <c r="T94" s="45"/>
+      <c r="R94" s="42"/>
+      <c r="S94" s="43"/>
+      <c r="T94" s="42"/>
     </row>
     <row r="95" spans="12:20">
       <c r="L95" s="35"/>
@@ -6334,9 +6334,9 @@
       <c r="Q95" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="R95" s="45"/>
-      <c r="S95" s="46"/>
-      <c r="T95" s="45"/>
+      <c r="R95" s="42"/>
+      <c r="S95" s="43"/>
+      <c r="T95" s="42"/>
     </row>
     <row r="96" spans="12:20">
       <c r="L96" s="31"/>
@@ -6355,9 +6355,9 @@
       <c r="Q96" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="R96" s="45"/>
-      <c r="S96" s="46"/>
-      <c r="T96" s="45"/>
+      <c r="R96" s="42"/>
+      <c r="S96" s="43"/>
+      <c r="T96" s="42"/>
     </row>
     <row r="97" spans="12:20">
       <c r="L97" s="31"/>
@@ -6376,9 +6376,9 @@
       <c r="Q97" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="R97" s="45"/>
-      <c r="S97" s="46"/>
-      <c r="T97" s="45"/>
+      <c r="R97" s="42"/>
+      <c r="S97" s="43"/>
+      <c r="T97" s="42"/>
     </row>
     <row r="98" spans="12:20">
       <c r="L98" s="31"/>
@@ -6397,9 +6397,9 @@
       <c r="Q98" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="R98" s="45"/>
-      <c r="S98" s="46"/>
-      <c r="T98" s="45"/>
+      <c r="R98" s="42"/>
+      <c r="S98" s="43"/>
+      <c r="T98" s="42"/>
     </row>
     <row r="99" spans="12:20">
       <c r="L99" s="35"/>
@@ -6418,9 +6418,9 @@
       <c r="Q99" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="R99" s="45"/>
-      <c r="S99" s="46"/>
-      <c r="T99" s="45"/>
+      <c r="R99" s="42"/>
+      <c r="S99" s="43"/>
+      <c r="T99" s="42"/>
     </row>
     <row r="100" spans="12:20">
       <c r="L100" s="35"/>
@@ -6439,9 +6439,9 @@
       <c r="Q100" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="R100" s="45"/>
-      <c r="S100" s="46"/>
-      <c r="T100" s="45"/>
+      <c r="R100" s="42"/>
+      <c r="S100" s="43"/>
+      <c r="T100" s="42"/>
     </row>
     <row r="101" spans="12:20">
       <c r="L101" s="35"/>
@@ -6460,9 +6460,9 @@
       <c r="Q101" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="R101" s="45"/>
-      <c r="S101" s="46"/>
-      <c r="T101" s="45"/>
+      <c r="R101" s="42"/>
+      <c r="S101" s="43"/>
+      <c r="T101" s="42"/>
     </row>
     <row r="102" spans="12:20">
       <c r="L102" s="35"/>
@@ -6481,9 +6481,9 @@
       <c r="Q102" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="R102" s="45"/>
-      <c r="S102" s="46"/>
-      <c r="T102" s="45"/>
+      <c r="R102" s="42"/>
+      <c r="S102" s="43"/>
+      <c r="T102" s="42"/>
     </row>
     <row r="103" spans="12:20">
       <c r="L103" s="31"/>
@@ -6502,9 +6502,9 @@
       <c r="Q103" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="R103" s="45"/>
-      <c r="S103" s="46"/>
-      <c r="T103" s="45"/>
+      <c r="R103" s="42"/>
+      <c r="S103" s="43"/>
+      <c r="T103" s="42"/>
     </row>
     <row r="104" spans="12:20">
       <c r="L104" s="31"/>
@@ -6523,9 +6523,9 @@
       <c r="Q104" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="R104" s="45"/>
-      <c r="S104" s="46"/>
-      <c r="T104" s="45"/>
+      <c r="R104" s="42"/>
+      <c r="S104" s="43"/>
+      <c r="T104" s="42"/>
     </row>
     <row r="105" spans="12:20">
       <c r="L105" s="31"/>
@@ -6544,9 +6544,9 @@
       <c r="Q105" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="R105" s="45"/>
-      <c r="S105" s="46"/>
-      <c r="T105" s="45"/>
+      <c r="R105" s="42"/>
+      <c r="S105" s="43"/>
+      <c r="T105" s="42"/>
     </row>
     <row r="106" spans="12:20">
       <c r="L106" s="31"/>
@@ -6565,9 +6565,9 @@
       <c r="Q106" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="R106" s="45"/>
-      <c r="S106" s="46"/>
-      <c r="T106" s="45"/>
+      <c r="R106" s="42"/>
+      <c r="S106" s="43"/>
+      <c r="T106" s="42"/>
     </row>
     <row r="107" spans="12:20">
       <c r="L107" s="31"/>
@@ -6586,9 +6586,9 @@
       <c r="Q107" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="R107" s="45"/>
-      <c r="S107" s="46"/>
-      <c r="T107" s="45"/>
+      <c r="R107" s="42"/>
+      <c r="S107" s="43"/>
+      <c r="T107" s="42"/>
     </row>
     <row r="108" spans="12:20">
       <c r="L108" s="31"/>
@@ -6607,9 +6607,9 @@
       <c r="Q108" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="R108" s="45"/>
-      <c r="S108" s="46"/>
-      <c r="T108" s="45"/>
+      <c r="R108" s="42"/>
+      <c r="S108" s="43"/>
+      <c r="T108" s="42"/>
     </row>
     <row r="109" spans="12:20">
       <c r="L109" s="31"/>
@@ -6628,9 +6628,9 @@
       <c r="Q109" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="R109" s="45"/>
-      <c r="S109" s="46"/>
-      <c r="T109" s="45"/>
+      <c r="R109" s="42"/>
+      <c r="S109" s="43"/>
+      <c r="T109" s="42"/>
     </row>
     <row r="110" spans="12:20">
       <c r="L110" s="31"/>
@@ -6649,9 +6649,9 @@
       <c r="Q110" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="R110" s="45"/>
-      <c r="S110" s="46"/>
-      <c r="T110" s="45"/>
+      <c r="R110" s="42"/>
+      <c r="S110" s="43"/>
+      <c r="T110" s="42"/>
     </row>
     <row r="111" spans="12:20">
       <c r="L111" s="31"/>
@@ -6670,9 +6670,9 @@
       <c r="Q111" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="R111" s="45"/>
-      <c r="S111" s="46"/>
-      <c r="T111" s="45"/>
+      <c r="R111" s="42"/>
+      <c r="S111" s="43"/>
+      <c r="T111" s="42"/>
     </row>
     <row r="112" spans="12:20">
       <c r="L112" s="31"/>
@@ -6691,9 +6691,9 @@
       <c r="Q112" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="R112" s="45"/>
-      <c r="S112" s="46"/>
-      <c r="T112" s="45"/>
+      <c r="R112" s="42"/>
+      <c r="S112" s="43"/>
+      <c r="T112" s="42"/>
     </row>
     <row r="113" spans="12:20">
       <c r="L113" s="31"/>
@@ -6712,9 +6712,9 @@
       <c r="Q113" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="R113" s="45"/>
-      <c r="S113" s="46"/>
-      <c r="T113" s="45"/>
+      <c r="R113" s="42"/>
+      <c r="S113" s="43"/>
+      <c r="T113" s="42"/>
     </row>
     <row r="114" spans="12:20">
       <c r="L114" s="34"/>
@@ -6733,11 +6733,11 @@
       <c r="Q114" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="R114" s="45"/>
-      <c r="S114" s="46" t="s">
+      <c r="R114" s="42"/>
+      <c r="S114" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="T114" s="45"/>
+      <c r="T114" s="42"/>
     </row>
     <row r="115" spans="12:20">
       <c r="L115" s="35"/>
@@ -6756,9 +6756,9 @@
       <c r="Q115" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="R115" s="45"/>
-      <c r="S115" s="46"/>
-      <c r="T115" s="45"/>
+      <c r="R115" s="42"/>
+      <c r="S115" s="43"/>
+      <c r="T115" s="42"/>
     </row>
     <row r="116" spans="12:20">
       <c r="L116" s="35"/>
@@ -6777,9 +6777,9 @@
       <c r="Q116" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="R116" s="45"/>
-      <c r="S116" s="46"/>
-      <c r="T116" s="45"/>
+      <c r="R116" s="42"/>
+      <c r="S116" s="43"/>
+      <c r="T116" s="42"/>
     </row>
     <row r="117" spans="12:20">
       <c r="L117" s="35"/>
@@ -6798,9 +6798,9 @@
       <c r="Q117" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="R117" s="45"/>
-      <c r="S117" s="46"/>
-      <c r="T117" s="45"/>
+      <c r="R117" s="42"/>
+      <c r="S117" s="43"/>
+      <c r="T117" s="42"/>
     </row>
     <row r="118" spans="12:20">
       <c r="L118" s="31"/>
@@ -6819,9 +6819,9 @@
       <c r="Q118" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="R118" s="45"/>
-      <c r="S118" s="46"/>
-      <c r="T118" s="45"/>
+      <c r="R118" s="42"/>
+      <c r="S118" s="43"/>
+      <c r="T118" s="42"/>
     </row>
     <row r="119" spans="12:20">
       <c r="L119" s="31"/>
@@ -6840,9 +6840,9 @@
       <c r="Q119" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="R119" s="45"/>
-      <c r="S119" s="46"/>
-      <c r="T119" s="45"/>
+      <c r="R119" s="42"/>
+      <c r="S119" s="43"/>
+      <c r="T119" s="42"/>
     </row>
     <row r="120" spans="12:20">
       <c r="L120" s="31"/>
@@ -6861,9 +6861,9 @@
       <c r="Q120" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="R120" s="45"/>
-      <c r="S120" s="46"/>
-      <c r="T120" s="45"/>
+      <c r="R120" s="42"/>
+      <c r="S120" s="43"/>
+      <c r="T120" s="42"/>
     </row>
     <row r="121" spans="12:20">
       <c r="L121" s="35"/>
@@ -6882,9 +6882,9 @@
       <c r="Q121" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="R121" s="45"/>
-      <c r="S121" s="46"/>
-      <c r="T121" s="45"/>
+      <c r="R121" s="42"/>
+      <c r="S121" s="43"/>
+      <c r="T121" s="42"/>
     </row>
     <row r="122" spans="12:20">
       <c r="L122" s="35"/>
@@ -6903,9 +6903,9 @@
       <c r="Q122" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="R122" s="45"/>
-      <c r="S122" s="46"/>
-      <c r="T122" s="45"/>
+      <c r="R122" s="42"/>
+      <c r="S122" s="43"/>
+      <c r="T122" s="42"/>
     </row>
     <row r="123" spans="12:20">
       <c r="L123" s="35"/>
@@ -6924,9 +6924,9 @@
       <c r="Q123" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="R123" s="45"/>
-      <c r="S123" s="46"/>
-      <c r="T123" s="45"/>
+      <c r="R123" s="42"/>
+      <c r="S123" s="43"/>
+      <c r="T123" s="42"/>
     </row>
     <row r="124" spans="12:20">
       <c r="L124" s="35"/>
@@ -6945,9 +6945,9 @@
       <c r="Q124" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="R124" s="45"/>
-      <c r="S124" s="46"/>
-      <c r="T124" s="45"/>
+      <c r="R124" s="42"/>
+      <c r="S124" s="43"/>
+      <c r="T124" s="42"/>
     </row>
     <row r="125" spans="12:20">
       <c r="L125" s="35"/>
@@ -6966,9 +6966,9 @@
       <c r="Q125" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="R125" s="45"/>
-      <c r="S125" s="46"/>
-      <c r="T125" s="45"/>
+      <c r="R125" s="42"/>
+      <c r="S125" s="43"/>
+      <c r="T125" s="42"/>
     </row>
     <row r="126" spans="12:20">
       <c r="L126" s="35"/>
@@ -6987,9 +6987,9 @@
       <c r="Q126" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="R126" s="45"/>
-      <c r="S126" s="46"/>
-      <c r="T126" s="45"/>
+      <c r="R126" s="42"/>
+      <c r="S126" s="43"/>
+      <c r="T126" s="42"/>
     </row>
     <row r="127" spans="12:20">
       <c r="L127" s="35"/>
@@ -7008,9 +7008,9 @@
       <c r="Q127" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="R127" s="45"/>
-      <c r="S127" s="46"/>
-      <c r="T127" s="45"/>
+      <c r="R127" s="42"/>
+      <c r="S127" s="43"/>
+      <c r="T127" s="42"/>
     </row>
     <row r="128" spans="12:20">
       <c r="L128" s="35"/>
@@ -7029,9 +7029,9 @@
       <c r="Q128" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="R128" s="45"/>
-      <c r="S128" s="46"/>
-      <c r="T128" s="45"/>
+      <c r="R128" s="42"/>
+      <c r="S128" s="43"/>
+      <c r="T128" s="42"/>
     </row>
     <row r="129" spans="12:20">
       <c r="L129" s="35"/>
@@ -7050,9 +7050,9 @@
       <c r="Q129" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="R129" s="45"/>
-      <c r="S129" s="46"/>
-      <c r="T129" s="45"/>
+      <c r="R129" s="42"/>
+      <c r="S129" s="43"/>
+      <c r="T129" s="42"/>
     </row>
     <row r="130" spans="12:20">
       <c r="L130" s="35"/>
@@ -7071,9 +7071,9 @@
       <c r="Q130" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="R130" s="45"/>
-      <c r="S130" s="46"/>
-      <c r="T130" s="45"/>
+      <c r="R130" s="42"/>
+      <c r="S130" s="43"/>
+      <c r="T130" s="42"/>
     </row>
     <row r="131" spans="12:20">
       <c r="L131" s="35"/>
@@ -7092,9 +7092,9 @@
       <c r="Q131" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="R131" s="45"/>
-      <c r="S131" s="46"/>
-      <c r="T131" s="45"/>
+      <c r="R131" s="42"/>
+      <c r="S131" s="43"/>
+      <c r="T131" s="42"/>
     </row>
     <row r="132" spans="12:20">
       <c r="L132" s="35"/>
@@ -7113,9 +7113,9 @@
       <c r="Q132" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="R132" s="45"/>
-      <c r="S132" s="46"/>
-      <c r="T132" s="45"/>
+      <c r="R132" s="42"/>
+      <c r="S132" s="43"/>
+      <c r="T132" s="42"/>
     </row>
     <row r="133" spans="12:20">
       <c r="L133" s="35"/>
@@ -7134,9 +7134,9 @@
       <c r="Q133" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="R133" s="45"/>
-      <c r="S133" s="46"/>
-      <c r="T133" s="45"/>
+      <c r="R133" s="42"/>
+      <c r="S133" s="43"/>
+      <c r="T133" s="42"/>
     </row>
     <row r="134" spans="12:20">
       <c r="L134" s="35"/>
@@ -7155,9 +7155,9 @@
       <c r="Q134" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="R134" s="45"/>
-      <c r="S134" s="46"/>
-      <c r="T134" s="45"/>
+      <c r="R134" s="42"/>
+      <c r="S134" s="43"/>
+      <c r="T134" s="42"/>
     </row>
     <row r="135" spans="12:20">
       <c r="L135" s="31"/>
@@ -7176,9 +7176,9 @@
       <c r="Q135" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="R135" s="45"/>
-      <c r="S135" s="46"/>
-      <c r="T135" s="45"/>
+      <c r="R135" s="42"/>
+      <c r="S135" s="43"/>
+      <c r="T135" s="42"/>
     </row>
     <row r="136" spans="12:20">
       <c r="L136" s="31"/>
@@ -7197,9 +7197,9 @@
       <c r="Q136" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="R136" s="45"/>
-      <c r="S136" s="46"/>
-      <c r="T136" s="45"/>
+      <c r="R136" s="42"/>
+      <c r="S136" s="43"/>
+      <c r="T136" s="42"/>
     </row>
     <row r="137" spans="12:20">
       <c r="L137" s="31"/>
@@ -7218,9 +7218,9 @@
       <c r="Q137" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="R137" s="45"/>
-      <c r="S137" s="46"/>
-      <c r="T137" s="45"/>
+      <c r="R137" s="42"/>
+      <c r="S137" s="43"/>
+      <c r="T137" s="42"/>
     </row>
     <row r="138" spans="12:20">
       <c r="L138" s="31"/>
@@ -7239,9 +7239,9 @@
       <c r="Q138" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="R138" s="45"/>
-      <c r="S138" s="46"/>
-      <c r="T138" s="45"/>
+      <c r="R138" s="42"/>
+      <c r="S138" s="43"/>
+      <c r="T138" s="42"/>
     </row>
     <row r="139" spans="12:20">
       <c r="L139" s="31"/>
@@ -7260,9 +7260,9 @@
       <c r="Q139" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="R139" s="45"/>
-      <c r="S139" s="46"/>
-      <c r="T139" s="45"/>
+      <c r="R139" s="42"/>
+      <c r="S139" s="43"/>
+      <c r="T139" s="42"/>
     </row>
     <row r="140" spans="12:20">
       <c r="L140" s="31"/>
@@ -7281,9 +7281,9 @@
       <c r="Q140" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="R140" s="45"/>
-      <c r="S140" s="46"/>
-      <c r="T140" s="45"/>
+      <c r="R140" s="42"/>
+      <c r="S140" s="43"/>
+      <c r="T140" s="42"/>
     </row>
     <row r="141" spans="12:20">
       <c r="L141" s="31"/>
@@ -7302,9 +7302,9 @@
       <c r="Q141" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="R141" s="45"/>
-      <c r="S141" s="46"/>
-      <c r="T141" s="45"/>
+      <c r="R141" s="42"/>
+      <c r="S141" s="43"/>
+      <c r="T141" s="42"/>
     </row>
     <row r="142" spans="12:20">
       <c r="L142" s="31"/>
@@ -7323,9 +7323,9 @@
       <c r="Q142" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="R142" s="45"/>
-      <c r="S142" s="46"/>
-      <c r="T142" s="45"/>
+      <c r="R142" s="42"/>
+      <c r="S142" s="43"/>
+      <c r="T142" s="42"/>
     </row>
     <row r="143" spans="12:20">
       <c r="L143" s="31"/>
@@ -7344,9 +7344,9 @@
       <c r="Q143" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="R143" s="45"/>
-      <c r="S143" s="46"/>
-      <c r="T143" s="45"/>
+      <c r="R143" s="42"/>
+      <c r="S143" s="43"/>
+      <c r="T143" s="42"/>
     </row>
     <row r="144" spans="12:20">
       <c r="L144" s="31"/>
@@ -7365,9 +7365,9 @@
       <c r="Q144" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="R144" s="45"/>
-      <c r="S144" s="46"/>
-      <c r="T144" s="45"/>
+      <c r="R144" s="42"/>
+      <c r="S144" s="43"/>
+      <c r="T144" s="42"/>
     </row>
     <row r="145" spans="12:20">
       <c r="L145" s="31"/>
@@ -7386,9 +7386,9 @@
       <c r="Q145" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="R145" s="45"/>
-      <c r="S145" s="46"/>
-      <c r="T145" s="45"/>
+      <c r="R145" s="42"/>
+      <c r="S145" s="43"/>
+      <c r="T145" s="42"/>
     </row>
     <row r="146" spans="12:20">
       <c r="L146" s="31"/>
@@ -7407,9 +7407,9 @@
       <c r="Q146" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="R146" s="45"/>
-      <c r="S146" s="46"/>
-      <c r="T146" s="45"/>
+      <c r="R146" s="42"/>
+      <c r="S146" s="43"/>
+      <c r="T146" s="42"/>
     </row>
     <row r="147" spans="12:20">
       <c r="L147" s="31"/>
@@ -7428,9 +7428,9 @@
       <c r="Q147" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="R147" s="45"/>
-      <c r="S147" s="46"/>
-      <c r="T147" s="45"/>
+      <c r="R147" s="42"/>
+      <c r="S147" s="43"/>
+      <c r="T147" s="42"/>
     </row>
     <row r="148" spans="12:20">
       <c r="L148" s="31"/>
@@ -7449,9 +7449,9 @@
       <c r="Q148" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="R148" s="45"/>
-      <c r="S148" s="46"/>
-      <c r="T148" s="45"/>
+      <c r="R148" s="42"/>
+      <c r="S148" s="43"/>
+      <c r="T148" s="42"/>
     </row>
     <row r="149" spans="12:20">
       <c r="L149" s="31"/>
@@ -7470,9 +7470,9 @@
       <c r="Q149" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="R149" s="45"/>
-      <c r="S149" s="46"/>
-      <c r="T149" s="45"/>
+      <c r="R149" s="42"/>
+      <c r="S149" s="43"/>
+      <c r="T149" s="42"/>
     </row>
     <row r="150" spans="12:20">
       <c r="L150" s="31"/>
@@ -7491,9 +7491,9 @@
       <c r="Q150" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="R150" s="45"/>
-      <c r="S150" s="46"/>
-      <c r="T150" s="45"/>
+      <c r="R150" s="42"/>
+      <c r="S150" s="43"/>
+      <c r="T150" s="42"/>
     </row>
     <row r="151" spans="12:20">
       <c r="L151" s="31"/>
@@ -7512,9 +7512,9 @@
       <c r="Q151" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="R151" s="45"/>
-      <c r="S151" s="46"/>
-      <c r="T151" s="45"/>
+      <c r="R151" s="42"/>
+      <c r="S151" s="43"/>
+      <c r="T151" s="42"/>
     </row>
     <row r="152" spans="12:20">
       <c r="L152" s="31"/>
@@ -7533,9 +7533,9 @@
       <c r="Q152" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="R152" s="45"/>
-      <c r="S152" s="46"/>
-      <c r="T152" s="45"/>
+      <c r="R152" s="42"/>
+      <c r="S152" s="43"/>
+      <c r="T152" s="42"/>
     </row>
   </sheetData>
   <autoFilter ref="L3:S3">
